--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H2">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I2">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J2">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N2">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q2">
-        <v>147.156695143596</v>
+        <v>5.379162098084667</v>
       </c>
       <c r="R2">
-        <v>147.156695143596</v>
+        <v>48.41245888276199</v>
       </c>
       <c r="S2">
-        <v>0.007471397291596638</v>
+        <v>0.0002533902431158545</v>
       </c>
       <c r="T2">
-        <v>0.007471397291596638</v>
+        <v>0.0002533902431158544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H3">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I3">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J3">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q3">
-        <v>10175.92101696847</v>
+        <v>175.5312277544396</v>
       </c>
       <c r="R3">
-        <v>10175.92101696847</v>
+        <v>1579.781049789956</v>
       </c>
       <c r="S3">
-        <v>0.51664892753599</v>
+        <v>0.008268555522979851</v>
       </c>
       <c r="T3">
-        <v>0.51664892753599</v>
+        <v>0.008268555522979851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H4">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I4">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J4">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N4">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q4">
-        <v>26.51798357682818</v>
+        <v>0.47916258871</v>
       </c>
       <c r="R4">
-        <v>26.51798357682818</v>
+        <v>4.31246329839</v>
       </c>
       <c r="S4">
-        <v>0.001346363415413656</v>
+        <v>2.257138242561622E-05</v>
       </c>
       <c r="T4">
-        <v>0.001346363415413656</v>
+        <v>2.257138242561621E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H5">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I5">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J5">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N5">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q5">
-        <v>3561.724335557405</v>
+        <v>60.79751912593522</v>
       </c>
       <c r="R5">
-        <v>3561.724335557405</v>
+        <v>547.177672133417</v>
       </c>
       <c r="S5">
-        <v>0.180834840902959</v>
+        <v>0.002863921531133427</v>
       </c>
       <c r="T5">
-        <v>0.180834840902959</v>
+        <v>0.002863921531133427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.6451449876279</v>
+        <v>123.027733</v>
       </c>
       <c r="H6">
-        <v>48.6451449876279</v>
+        <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="J6">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N6">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q6">
-        <v>61.19156557946074</v>
+        <v>332.341458650482</v>
       </c>
       <c r="R6">
-        <v>61.19156557946074</v>
+        <v>2991.073127854338</v>
       </c>
       <c r="S6">
-        <v>0.00310680052234672</v>
+        <v>0.01565524174014171</v>
       </c>
       <c r="T6">
-        <v>0.00310680052234672</v>
+        <v>0.01565524174014171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.6451449876279</v>
+        <v>123.027733</v>
       </c>
       <c r="H7">
-        <v>48.6451449876279</v>
+        <v>369.083199</v>
       </c>
       <c r="I7">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="J7">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q7">
-        <v>4231.411541511075</v>
+        <v>10844.86825399665</v>
       </c>
       <c r="R7">
-        <v>4231.411541511075</v>
+        <v>97603.81428596983</v>
       </c>
       <c r="S7">
-        <v>0.2148360066120471</v>
+        <v>0.5108572215025988</v>
       </c>
       <c r="T7">
-        <v>0.2148360066120471</v>
+        <v>0.5108572215025988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.6451449876279</v>
+        <v>123.027733</v>
       </c>
       <c r="H8">
-        <v>48.6451449876279</v>
+        <v>369.083199</v>
       </c>
       <c r="I8">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="J8">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N8">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q8">
-        <v>11.02686445555964</v>
+        <v>29.60416339179</v>
       </c>
       <c r="R8">
-        <v>11.02686445555964</v>
+        <v>266.43747052611</v>
       </c>
       <c r="S8">
-        <v>0.0005598527824213426</v>
+        <v>0.001394530602035239</v>
       </c>
       <c r="T8">
-        <v>0.0005598527824213426</v>
+        <v>0.001394530602035239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>123.027733</v>
+      </c>
+      <c r="H9">
+        <v>369.083199</v>
+      </c>
+      <c r="I9">
+        <v>0.7048490234326753</v>
+      </c>
+      <c r="J9">
+        <v>0.7048490234326753</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.53182233333333</v>
+      </c>
+      <c r="N9">
+        <v>91.595467</v>
+      </c>
+      <c r="O9">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="P9">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="Q9">
+        <v>3756.260886028771</v>
+      </c>
+      <c r="R9">
+        <v>33806.34797425893</v>
+      </c>
+      <c r="S9">
+        <v>0.1769420295878996</v>
+      </c>
+      <c r="T9">
+        <v>0.1769420295878996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.037411</v>
+      </c>
+      <c r="H10">
+        <v>0.112233</v>
+      </c>
+      <c r="I10">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J10">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.701354</v>
+      </c>
+      <c r="N10">
+        <v>8.104061999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02221077311549548</v>
+      </c>
+      <c r="P10">
+        <v>0.02221077311549548</v>
+      </c>
+      <c r="Q10">
+        <v>0.101060354494</v>
+      </c>
+      <c r="R10">
+        <v>0.9095431904459998</v>
+      </c>
+      <c r="S10">
+        <v>4.760538412428046E-06</v>
+      </c>
+      <c r="T10">
+        <v>4.760538412428046E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.037411</v>
+      </c>
+      <c r="H11">
+        <v>0.112233</v>
+      </c>
+      <c r="I11">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J11">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>88.14978533333333</v>
+      </c>
+      <c r="N11">
+        <v>264.449356</v>
+      </c>
+      <c r="O11">
+        <v>0.7247753838328104</v>
+      </c>
+      <c r="P11">
+        <v>0.7247753838328105</v>
+      </c>
+      <c r="Q11">
+        <v>3.297771619105333</v>
+      </c>
+      <c r="R11">
+        <v>29.679944571948</v>
+      </c>
+      <c r="S11">
+        <v>0.0001553444824804967</v>
+      </c>
+      <c r="T11">
+        <v>0.0001553444824804967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.037411</v>
+      </c>
+      <c r="H12">
+        <v>0.112233</v>
+      </c>
+      <c r="I12">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J12">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.24063</v>
+      </c>
+      <c r="N12">
+        <v>0.72189</v>
+      </c>
+      <c r="O12">
+        <v>0.001978481285600361</v>
+      </c>
+      <c r="P12">
+        <v>0.001978481285600361</v>
+      </c>
+      <c r="Q12">
+        <v>0.00900220893</v>
+      </c>
+      <c r="R12">
+        <v>0.08101988037000001</v>
+      </c>
+      <c r="S12">
+        <v>4.240571055043363E-07</v>
+      </c>
+      <c r="T12">
+        <v>4.240571055043363E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.037411</v>
+      </c>
+      <c r="H13">
+        <v>0.112233</v>
+      </c>
+      <c r="I13">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J13">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.53182233333333</v>
+      </c>
+      <c r="N13">
+        <v>91.595467</v>
+      </c>
+      <c r="O13">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="P13">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="Q13">
+        <v>1.142226005312333</v>
+      </c>
+      <c r="R13">
+        <v>10.280034047811</v>
+      </c>
+      <c r="S13">
+        <v>5.380557787659886E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.380557787659886E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>49.488374</v>
+      </c>
+      <c r="H14">
+        <v>148.465122</v>
+      </c>
+      <c r="I14">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J14">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.701354</v>
+      </c>
+      <c r="N14">
+        <v>8.104061999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.02221077311549548</v>
+      </c>
+      <c r="P14">
+        <v>0.02221077311549548</v>
+      </c>
+      <c r="Q14">
+        <v>133.685617058396</v>
+      </c>
+      <c r="R14">
+        <v>1203.170553525564</v>
+      </c>
+      <c r="S14">
+        <v>0.006297380593825489</v>
+      </c>
+      <c r="T14">
+        <v>0.006297380593825489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>48.6451449876279</v>
-      </c>
-      <c r="H9">
-        <v>48.6451449876279</v>
-      </c>
-      <c r="I9">
-        <v>0.2936984708540406</v>
-      </c>
-      <c r="J9">
-        <v>0.2936984708540406</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>30.4461470300391</v>
-      </c>
-      <c r="N9">
-        <v>30.4461470300391</v>
-      </c>
-      <c r="O9">
-        <v>0.2560306518401845</v>
-      </c>
-      <c r="P9">
-        <v>0.2560306518401845</v>
-      </c>
-      <c r="Q9">
-        <v>1481.057236590889</v>
-      </c>
-      <c r="R9">
-        <v>1481.057236590889</v>
-      </c>
-      <c r="S9">
-        <v>0.07519581093722544</v>
-      </c>
-      <c r="T9">
-        <v>0.07519581093722544</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>49.488374</v>
+      </c>
+      <c r="H15">
+        <v>148.465122</v>
+      </c>
+      <c r="I15">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J15">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>88.14978533333333</v>
+      </c>
+      <c r="N15">
+        <v>264.449356</v>
+      </c>
+      <c r="O15">
+        <v>0.7247753838328104</v>
+      </c>
+      <c r="P15">
+        <v>0.7247753838328105</v>
+      </c>
+      <c r="Q15">
+        <v>4362.389544595714</v>
+      </c>
+      <c r="R15">
+        <v>39261.50590136143</v>
+      </c>
+      <c r="S15">
+        <v>0.2054942623247512</v>
+      </c>
+      <c r="T15">
+        <v>0.2054942623247512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>49.488374</v>
+      </c>
+      <c r="H16">
+        <v>148.465122</v>
+      </c>
+      <c r="I16">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J16">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.24063</v>
+      </c>
+      <c r="N16">
+        <v>0.72189</v>
+      </c>
+      <c r="O16">
+        <v>0.001978481285600361</v>
+      </c>
+      <c r="P16">
+        <v>0.001978481285600361</v>
+      </c>
+      <c r="Q16">
+        <v>11.90838743562</v>
+      </c>
+      <c r="R16">
+        <v>107.17548692058</v>
+      </c>
+      <c r="S16">
+        <v>0.0005609552440340021</v>
+      </c>
+      <c r="T16">
+        <v>0.0005609552440340021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>49.488374</v>
+      </c>
+      <c r="H17">
+        <v>148.465122</v>
+      </c>
+      <c r="I17">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J17">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.53182233333333</v>
+      </c>
+      <c r="N17">
+        <v>91.595467</v>
+      </c>
+      <c r="O17">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="P17">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="Q17">
+        <v>1510.970242533553</v>
+      </c>
+      <c r="R17">
+        <v>13598.73218280197</v>
+      </c>
+      <c r="S17">
+        <v>0.0711756050691842</v>
+      </c>
+      <c r="T17">
+        <v>0.0711756050691842</v>
       </c>
     </row>
   </sheetData>
